--- a/max15FromRandomValues.xlsx
+++ b/max15FromRandomValues.xlsx
@@ -639,115 +639,115 @@
         <v>Oysters</v>
       </c>
       <c r="B3" t="str">
-        <v>Oysters, coated, baked or broiled, fat added</v>
+        <v>Oysters, cooked, NS as to cooking method</v>
       </c>
       <c r="C3">
-        <v>26315160</v>
+        <v>26315110</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>14.67</v>
+        <v>12.62</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I3">
-        <v>62.6</v>
+        <v>83.8</v>
       </c>
       <c r="J3">
         <v>0.6</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.688</v>
+        <v>1.624</v>
       </c>
       <c r="N3">
-        <v>7.43</v>
+        <v>8.16</v>
       </c>
       <c r="O3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P3">
-        <v>0.146</v>
+        <v>0.169</v>
       </c>
       <c r="Q3">
-        <v>22.8</v>
+        <v>24</v>
       </c>
       <c r="R3">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="S3">
-        <v>0.128</v>
+        <v>0.119</v>
       </c>
       <c r="T3">
-        <v>68.33</v>
+        <v>65.18</v>
       </c>
       <c r="U3">
-        <v>2.715</v>
+        <v>4.507</v>
       </c>
       <c r="V3">
-        <v>2.984</v>
+        <v>4.664</v>
       </c>
       <c r="W3">
-        <v>1.442</v>
+        <v>2.129</v>
       </c>
       <c r="X3">
-        <v>7.88</v>
+        <v>12.22</v>
       </c>
       <c r="Y3">
         <v>84</v>
       </c>
       <c r="Z3">
-        <v>2.63</v>
+        <v>2.572</v>
       </c>
       <c r="AA3">
-        <v>4.94</v>
+        <v>4.95</v>
       </c>
       <c r="AB3">
         <v>23</v>
       </c>
       <c r="AC3">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AD3">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AE3">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="AF3">
-        <v>35.95</v>
+        <v>35.1</v>
       </c>
       <c r="AG3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AH3">
-        <v>7.62</v>
+        <v>6.7</v>
       </c>
       <c r="AI3">
-        <v>0.044</v>
+        <v>0.056</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="AL3">
-        <v>8.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="4">
